--- a/python training environment/cRIO timing and SNR.xlsx
+++ b/python training environment/cRIO timing and SNR.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07B40E-0D53-4470-9804-73B9B49C5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91839245-B2B2-4B8F-B2DA-6A5D9CAFFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3DFDAE7D-E760-451F-B681-94403AFEABDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3DFDAE7D-E760-451F-B681-94403AFEABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
     <sheet name="SNR table" sheetId="2" r:id="rId2"/>
+    <sheet name="Bigger SNR Tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>analog read</t>
   </si>
@@ -123,6 +124,9 @@
   </si>
   <si>
     <t>Validation Profile:</t>
+  </si>
+  <si>
+    <t>1 Cell</t>
   </si>
 </sst>
 </file>
@@ -171,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -181,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1773,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7945617-BC65-4E48-B28B-121AF4036495}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,4 +2422,461 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CB922C-46C9-4822-8489-8BECDA10DEAF}">
+  <dimension ref="A1:AN10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT17" sqref="AT17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>29.143000000000001</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>3.49E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>35</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>18</v>
+      </c>
+      <c r="X2">
+        <v>15</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2">
+        <v>40</v>
+      </c>
+      <c r="AF2">
+        <v>35</v>
+      </c>
+      <c r="AG2">
+        <v>30</v>
+      </c>
+      <c r="AH2">
+        <v>25</v>
+      </c>
+      <c r="AI2">
+        <v>20</v>
+      </c>
+      <c r="AJ2">
+        <v>18</v>
+      </c>
+      <c r="AK2">
+        <v>15</v>
+      </c>
+      <c r="AL2">
+        <v>12</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <f>$B$1+$B$2*(68*E2+4*E2^2)+$B$3*5*E2</f>
+        <v>447.55100000000004</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:N3" si="0">$B$1+$B$2*(68*F2+4*F2^2)+$B$3*5*F2</f>
+        <v>370.82000000000005</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>301.06900000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>238.298</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>182.50700000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>162.14500000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>133.696</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>107.75980000000001</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>91.865000000000009</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>77.087000000000003</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <f>$B$1+$B$2*(72*R2+12*R2^2)+$B$3*10*R2</f>
+        <v>999.97500000000002</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:AA3" si="1">$B$1+$B$2*(72*S2+12*S2^2)+$B$3*10*S2</f>
+        <v>805.33100000000002</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>631.62699999999995</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>478.86299999999994</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>347.03899999999999</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>300.17259999999999</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>236.155</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>179.67580000000001</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>146.21100000000001</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>116.0966</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <f>$B$1+$B$2*(76*AE2+20*AE2^2)+$B$3*15*AE2</f>
+        <v>1552.3989999999999</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AN3" si="2">$B$1+$B$2*(76*AF2+20*AF2^2)+$B$3*15*AF2</f>
+        <v>1239.8420000000001</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>962.18500000000006</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>719.428</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>511.57099999999997</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>438.2002</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>338.61400000000003</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="2"/>
+        <v>251.59180000000001</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="2"/>
+        <v>200.55700000000002</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="2"/>
+        <v>155.1062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>1000</v>
+      </c>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>750</v>
+      </c>
+      <c r="Q5">
+        <v>750</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="AD5">
+        <v>750</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="Q6">
+        <v>500</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="AD6">
+        <v>500</v>
+      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="Q7">
+        <v>400</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="AD7">
+        <v>400</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="Q8">
+        <v>300</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="AD8">
+        <v>300</v>
+      </c>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="Q9">
+        <v>200</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="AD9">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AD10">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python training environment/cRIO timing and SNR.xlsx
+++ b/python training environment/cRIO timing and SNR.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91839245-B2B2-4B8F-B2DA-6A5D9CAFFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3DFDAE7D-E760-451F-B681-94403AFEABDB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
     <sheet name="SNR table" sheetId="2" r:id="rId2"/>
     <sheet name="Bigger SNR Tables" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>analog read</t>
   </si>
@@ -128,11 +122,14 @@
   <si>
     <t>1 Cell</t>
   </si>
+  <si>
+    <t>3 Cells</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,10 +179,10 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -311,7 +308,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7288-423B-8354-6A3C8EA918B2}"/>
             </c:ext>
@@ -325,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1933340000"/>
-        <c:axId val="1933337088"/>
+        <c:axId val="207379456"/>
+        <c:axId val="207381632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1933340000"/>
+        <c:axId val="207379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,6 +376,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -387,26 +385,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -445,12 +423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933337088"/>
+        <c:crossAx val="207381632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1933337088"/>
+        <c:axId val="207381632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,6 +478,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -508,26 +487,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -566,7 +525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933340000"/>
+        <c:crossAx val="207379456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -580,14 +539,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1198,7 +1157,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,29 +1467,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D987595F-8B7D-4A6A-A6FA-4ABF67BE2BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,59 +1734,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7945617-BC65-4E48-B28B-121AF4036495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="25" max="25" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
       <c r="Y1" t="s">
         <v>17</v>
       </c>
@@ -2425,22 +2384,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CB922C-46C9-4822-8489-8BECDA10DEAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2454,10 +2413,10 @@
         <v>29</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2701,180 +2660,721 @@
         <v>155.1062</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
+      <c r="E4">
+        <v>24.3748441250432</v>
+      </c>
+      <c r="F4">
+        <v>22.454687677486199</v>
+      </c>
+      <c r="G4">
+        <v>21.462158962318998</v>
+      </c>
+      <c r="H4">
+        <v>22.5436300549629</v>
+      </c>
+      <c r="I4">
+        <v>21.199447069952399</v>
+      </c>
+      <c r="J4">
+        <v>20.253152241872101</v>
+      </c>
+      <c r="K4">
+        <v>21.2078791549506</v>
+      </c>
+      <c r="L4">
+        <v>20.1928588401261</v>
+      </c>
+      <c r="M4">
+        <v>20.247856606770799</v>
+      </c>
+      <c r="N4">
+        <v>19.0289778020475</v>
+      </c>
       <c r="P4" t="s">
         <v>2</v>
       </c>
       <c r="Q4">
         <v>1000</v>
       </c>
+      <c r="R4" s="1">
+        <v>20.1381505847034</v>
+      </c>
+      <c r="S4" s="1">
+        <v>21.097831397811198</v>
+      </c>
+      <c r="T4" s="1">
+        <v>24.3782379413055</v>
+      </c>
+      <c r="U4" s="1">
+        <v>22.049879477957401</v>
+      </c>
+      <c r="V4" s="1">
+        <v>23.744620963055102</v>
+      </c>
+      <c r="W4" s="1">
+        <v>23.5425446953363</v>
+      </c>
+      <c r="X4" s="1">
+        <v>23.246552807478</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>23.240663206517301</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>22.7926265376156</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>22.502073636132899</v>
+      </c>
       <c r="AC4" t="s">
         <v>2</v>
       </c>
       <c r="AD4">
         <v>1000</v>
       </c>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AE4" s="4">
+        <v>22.568645662511202</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>24.384937762297199</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>22.472001255953899</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>22.410365815188001</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>23.404699465639599</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>23.836307314233601</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>22.102869800771401</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>25.6851149363698</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>24.323408141194498</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>21.7917929020294</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D5">
         <v>750</v>
       </c>
+      <c r="E5">
+        <v>23.696814990552198</v>
+      </c>
+      <c r="F5">
+        <v>22.745322746766099</v>
+      </c>
+      <c r="G5">
+        <v>22.475278106940301</v>
+      </c>
+      <c r="H5">
+        <v>22.888703616903999</v>
+      </c>
+      <c r="I5">
+        <v>21.648219564246698</v>
+      </c>
+      <c r="J5">
+        <v>21.499550484918</v>
+      </c>
+      <c r="K5">
+        <v>19.6287237522887</v>
+      </c>
+      <c r="L5">
+        <v>19.967360107268501</v>
+      </c>
+      <c r="M5">
+        <v>20.0447568070736</v>
+      </c>
+      <c r="N5">
+        <v>20.0706038778631</v>
+      </c>
       <c r="Q5">
         <v>750</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="4">
+        <v>21.553553140013602</v>
+      </c>
+      <c r="S5" s="4">
+        <v>22.7374398643768</v>
+      </c>
+      <c r="T5" s="1">
+        <v>21.5733217826768</v>
+      </c>
+      <c r="U5" s="1">
+        <v>23.861301640883301</v>
+      </c>
+      <c r="V5" s="1">
+        <v>22.030602205108401</v>
+      </c>
+      <c r="W5" s="1">
+        <v>21.019466111561499</v>
+      </c>
+      <c r="X5" s="1">
+        <v>23.418764402735299</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>20.662870666062201</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>20.393248236345901</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>21.627828470143399</v>
+      </c>
       <c r="AD5">
         <v>750</v>
       </c>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="4">
+        <v>23.805923882757799</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>20.839790117110599</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>20.488963825109298</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>24.3330003187511</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>22.182494994965801</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>21.831568907987901</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>22.750606530740502</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>21.801028909165801</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>22.5662990109855</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>22.0411775621447</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>500</v>
       </c>
+      <c r="E6">
+        <v>21.373283974181799</v>
+      </c>
+      <c r="F6">
+        <v>20.529188119313702</v>
+      </c>
+      <c r="G6">
+        <v>22.460991388479599</v>
+      </c>
+      <c r="H6">
+        <v>21.813941261012101</v>
+      </c>
+      <c r="I6">
+        <v>20.582925589791699</v>
+      </c>
+      <c r="J6">
+        <v>19.415787112497199</v>
+      </c>
+      <c r="K6">
+        <v>19.4939566102436</v>
+      </c>
+      <c r="L6">
+        <v>18.969709123817498</v>
+      </c>
+      <c r="M6">
+        <v>19.525271372721502</v>
+      </c>
+      <c r="N6">
+        <v>18.605227807307799</v>
+      </c>
       <c r="Q6">
         <v>500</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="R6" s="4">
+        <v>20.6972478773002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>21.083500402374099</v>
+      </c>
+      <c r="T6" s="4">
+        <v>21.572898643278702</v>
+      </c>
+      <c r="U6" s="1">
+        <v>23.425106647288899</v>
+      </c>
+      <c r="V6" s="1">
+        <v>23.912566332558701</v>
+      </c>
+      <c r="W6" s="1">
+        <v>22.454856017997201</v>
+      </c>
+      <c r="X6" s="1">
+        <v>22.217859481089299</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>20.6519102771958</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>20.956016061409301</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>21.238720678994198</v>
+      </c>
       <c r="AD6">
         <v>500</v>
       </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="AE6" s="4">
+        <v>25.497581756426602</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>25.244962470545101</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>24.6689716407902</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>23.015465322991801</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>23.021440863921399</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>24.847631989857</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>23.089111320663399</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>22.3811018355545</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>22.154086063508899</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>21.797868119922299</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6">
+        <v>22.6718305371888</v>
+      </c>
+      <c r="F7">
+        <v>22.351440524577001</v>
+      </c>
+      <c r="G7">
+        <v>22.130612361474</v>
+      </c>
+      <c r="H7">
+        <v>19.235529422063799</v>
+      </c>
+      <c r="I7">
+        <v>21.634261682872101</v>
+      </c>
+      <c r="J7">
+        <v>20.037202439772599</v>
+      </c>
+      <c r="K7">
+        <v>20.0137882477588</v>
+      </c>
+      <c r="L7">
+        <v>19.408230164569101</v>
+      </c>
+      <c r="M7">
+        <v>18.9916861581946</v>
+      </c>
+      <c r="N7">
+        <v>20.602361959396202</v>
+      </c>
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="R7" s="4">
+        <v>24.745815898702102</v>
+      </c>
+      <c r="S7" s="4">
+        <v>22.579167257988502</v>
+      </c>
+      <c r="T7" s="4">
+        <v>23.671868231465499</v>
+      </c>
+      <c r="U7" s="4">
+        <v>22.520660410302899</v>
+      </c>
+      <c r="V7" s="1">
+        <v>21.979155231846701</v>
+      </c>
+      <c r="W7" s="1">
+        <v>21.578736115519899</v>
+      </c>
+      <c r="X7" s="1">
+        <v>23.521078453433699</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>20.9641859032503</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>20.936556545047999</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>20.965830111008199</v>
+      </c>
       <c r="AD7">
         <v>400</v>
       </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
+      <c r="AE7" s="4">
+        <v>24.623587596689301</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>25.055375065584101</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>23.9388094863281</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>24.147844156218301</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>22.576084574414601</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>23.653732039883401</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>21.528320610316701</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>22.7145213494038</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>21.369490355091699</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>21.2718062052008</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>300</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="6">
+        <v>21.191331936268799</v>
+      </c>
+      <c r="F8" s="6">
+        <v>22.042757457995499</v>
+      </c>
+      <c r="G8" s="6">
+        <v>21.342847866868599</v>
+      </c>
+      <c r="H8">
+        <v>19.9536486153821</v>
+      </c>
+      <c r="I8">
+        <v>21.015656676063099</v>
+      </c>
+      <c r="J8">
+        <v>19.946431495825902</v>
+      </c>
+      <c r="K8">
+        <v>20.640891439402399</v>
+      </c>
+      <c r="L8">
+        <v>19.2474582421892</v>
+      </c>
+      <c r="M8">
+        <v>20.005199342914199</v>
+      </c>
+      <c r="N8">
+        <v>19.959801795302099</v>
+      </c>
       <c r="Q8">
         <v>300</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="R8" s="4">
+        <v>22.199535021309298</v>
+      </c>
+      <c r="S8" s="4">
+        <v>23.729210981237799</v>
+      </c>
+      <c r="T8" s="4">
+        <v>22.315223535379499</v>
+      </c>
+      <c r="U8" s="4">
+        <v>22.458423009984699</v>
+      </c>
+      <c r="V8" s="4">
+        <v>20.0748768824389</v>
+      </c>
+      <c r="W8" s="4">
+        <v>20.720424999576998</v>
+      </c>
+      <c r="X8" s="1">
+        <v>21.366096018824098</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>22.428649638692999</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>18.550030520799599</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>20.999290384405999</v>
+      </c>
       <c r="AD8">
         <v>300</v>
       </c>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
+      <c r="AE8" s="4">
+        <v>24.219119073285299</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>22.835099488290702</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>23.927155614491198</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>23.482342268804199</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>22.466761247748199</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>22.487490762765301</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>20.8776359782063</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>22.404339359223101</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>20.457503960372499</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>18.667517934899699</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>200</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6">
+        <v>21.7936157275503</v>
+      </c>
+      <c r="F9" s="6">
+        <v>22.080614943414901</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20.103383766915002</v>
+      </c>
+      <c r="H9" s="6">
+        <v>19.957503767253701</v>
+      </c>
+      <c r="I9">
+        <v>19.3891719544769</v>
+      </c>
+      <c r="J9">
+        <v>17.522030448901301</v>
+      </c>
+      <c r="K9">
+        <v>20.2776417792067</v>
+      </c>
+      <c r="L9">
+        <v>18.889099927914401</v>
+      </c>
+      <c r="M9">
+        <v>19.7747574176156</v>
+      </c>
+      <c r="N9">
+        <v>17.926866203311299</v>
+      </c>
       <c r="Q9">
         <v>200</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="R9" s="4">
+        <v>22.118868520790102</v>
+      </c>
+      <c r="S9" s="4">
+        <v>21.841762599373499</v>
+      </c>
+      <c r="T9" s="4">
+        <v>21.215809841083502</v>
+      </c>
+      <c r="U9" s="4">
+        <v>21.263802754920601</v>
+      </c>
+      <c r="V9" s="4">
+        <v>20.899578583115201</v>
+      </c>
+      <c r="W9" s="4">
+        <v>20.6993561560103</v>
+      </c>
+      <c r="X9" s="4">
+        <v>18.295983941049499</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>19.5482586512532</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>21.022936355153401</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>20.597257695925599</v>
+      </c>
       <c r="AD9">
         <v>200</v>
       </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
+      <c r="AE9" s="4">
+        <v>23.6655008430305</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>24.945819797726401</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>21.1651941336833</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>22.775435042530201</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>22.101889810380001</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>22.496151184103098</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>22.0689857718518</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>20.343674666274101</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>22.126735273993699</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>20.4311544471317</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="E10" s="6">
+        <v>15.724595645976599</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7.9713111982865597</v>
+      </c>
+      <c r="G10" s="6">
+        <v>19.145752978174801</v>
+      </c>
+      <c r="H10" s="6">
+        <v>17.689746061819299</v>
+      </c>
+      <c r="I10" s="6">
+        <v>11.0922143430803</v>
+      </c>
+      <c r="J10" s="6">
+        <v>13.1983579983161</v>
+      </c>
+      <c r="K10" s="6">
+        <v>15.6128605879458</v>
+      </c>
+      <c r="L10" s="6">
+        <v>16.233640622426801</v>
+      </c>
+      <c r="M10">
+        <v>10.652721344744901</v>
+      </c>
+      <c r="N10">
+        <v>7.4665071763712696</v>
+      </c>
       <c r="Q10">
         <v>100</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
+      <c r="R10" s="4">
+        <v>19.290655224580298</v>
+      </c>
+      <c r="S10" s="4">
+        <v>20.161766566992899</v>
+      </c>
+      <c r="T10" s="4">
+        <v>18.078413023417301</v>
+      </c>
+      <c r="U10" s="4">
+        <v>18.511079391296601</v>
+      </c>
+      <c r="V10" s="4">
+        <v>18.376820636086499</v>
+      </c>
+      <c r="W10" s="4">
+        <v>15.7857468127737</v>
+      </c>
+      <c r="X10" s="4">
+        <v>20.325758826236299</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>19.574420409651498</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>11.960593025467499</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>18.3620524504847</v>
+      </c>
       <c r="AD10">
         <v>100</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
+      <c r="AE10" s="4">
+        <v>22.125929834853601</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>21.826685295937601</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>21.499962301037399</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>20.2798740254254</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>20.243856797368899</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>19.847382069273099</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>19.615281158656</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>18.9835276102969</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>19.431700588126301</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>18.948570755243001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python training environment/cRIO timing and SNR.xlsx
+++ b/python training environment/cRIO timing and SNR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>analog read</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>3 Cells</t>
+  </si>
+  <si>
+    <t>2 Cells</t>
   </si>
 </sst>
 </file>
@@ -322,11 +325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207379456"/>
-        <c:axId val="207381632"/>
+        <c:axId val="218848256"/>
+        <c:axId val="218850432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207379456"/>
+        <c:axId val="218848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,12 +426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207381632"/>
+        <c:crossAx val="218850432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207381632"/>
+        <c:axId val="218850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207379456"/>
+        <c:crossAx val="218848256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,7 +1160,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1477,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2387,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2410,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AD1" t="s">
         <v>30</v>

--- a/python training environment/cRIO timing and SNR.xlsx
+++ b/python training environment/cRIO timing and SNR.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
-    <sheet name="SNR table" sheetId="2" r:id="rId2"/>
-    <sheet name="Bigger SNR Tables" sheetId="3" r:id="rId3"/>
+    <sheet name="Direct Timing" sheetId="4" r:id="rId2"/>
+    <sheet name="SNR table" sheetId="2" r:id="rId3"/>
+    <sheet name="Bigger SNR Tables" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>analog read</t>
   </si>
@@ -127,6 +128,21 @@
   </si>
   <si>
     <t>2 Cells</t>
+  </si>
+  <si>
+    <t>new model:</t>
+  </si>
+  <si>
+    <t>with new data:</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>matrix-vector timing</t>
+  </si>
+  <si>
+    <t>sigoid timing</t>
   </si>
 </sst>
 </file>
@@ -325,11 +341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218848256"/>
-        <c:axId val="218850432"/>
+        <c:axId val="212229504"/>
+        <c:axId val="212231680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218848256"/>
+        <c:axId val="212229504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,12 +442,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218850432"/>
+        <c:crossAx val="212231680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218850432"/>
+        <c:axId val="212231680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218848256"/>
+        <c:crossAx val="212229504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1144,16 +1160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149542</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180022</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>116522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1478,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,7 +1508,8 @@
     <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1629,6 +1646,12 @@
         <f>$J$1+E4*$J$2+G4*$J$3</f>
         <v>568.80700000000002</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>22.515000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1641,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <f>4*C5*C4+4*C5*C5+4*C5</f>
+        <f t="shared" ref="D5:D11" si="0">4*C5*C4+4*C5*C5+4*C5</f>
         <v>2760</v>
       </c>
       <c r="E5">
@@ -1660,6 +1683,9 @@
         <f>$J$1+E5*$J$2+G5*$J$3</f>
         <v>702.67600000000004</v>
       </c>
+      <c r="J5">
+        <v>-3.5291820000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1672,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <f>4*C6*C5+4*C6*C6+4*C6</f>
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
       <c r="E6">
@@ -1691,41 +1717,154 @@
         <f>$J$1+E6*$J$2+G6*$J$3</f>
         <v>805.13499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J6">
+        <v>3.0385924100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B8">
+        <v>65.391999999999996</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUM($D$8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>SUM($F$8:F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>216.11600000000001</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="E9">
+        <f>SUM($D$8:D9)</f>
+        <v>1020</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <f>SUM($F$8:F9)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>394.71499999999997</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="E10">
+        <f>SUM($D$8:D10)</f>
+        <v>2880</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F11" si="1">5*C10</f>
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <f>SUM($F$8:F10)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>572.05799999999999</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="E11">
+        <f>SUM($D$8:D11)</f>
+        <v>4740</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <f>SUM($F$8:F11)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1737,6 +1876,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>13.8628</v>
+      </c>
+      <c r="D2">
+        <v>12.740600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>20.0215</v>
+      </c>
+      <c r="D3">
+        <v>14.8826</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>28.215599999999998</v>
+      </c>
+      <c r="D4">
+        <v>17.2987</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>39.049300000000002</v>
+      </c>
+      <c r="D5">
+        <v>19.535</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>52.2166</v>
+      </c>
+      <c r="D6">
+        <v>21.561699999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>67.389200000000002</v>
+      </c>
+      <c r="D7">
+        <v>24.110800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>86.099900000000005</v>
+      </c>
+      <c r="D8">
+        <v>26.612100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>106.21899999999999</v>
+      </c>
+      <c r="D9">
+        <v>28.531500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>130.47</v>
+      </c>
+      <c r="D10">
+        <v>31.134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>154.50899999999999</v>
+      </c>
+      <c r="D11">
+        <v>33.309899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>183.45599999999999</v>
+      </c>
+      <c r="D12">
+        <v>35.643300000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
@@ -2386,7 +2677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN10"/>
   <sheetViews>

--- a/python training environment/cRIO timing and SNR.xlsx
+++ b/python training environment/cRIO timing and SNR.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\OneDrive\Documents\GitHub\Real-time-LSTM\python training environment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA2AE8-F084-4BC0-A446-AA7C15DC77E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="SNR table" sheetId="2" r:id="rId3"/>
     <sheet name="Bigger SNR Tables" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +226,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -327,7 +333,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7288-423B-8354-6A3C8EA918B2}"/>
             </c:ext>
@@ -395,7 +401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -404,6 +409,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -497,7 +522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -506,6 +530,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -558,14 +602,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1176,7 +1220,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E169A768-9466-F90E-6327-3BB1745B7045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,33 +1530,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1588,7 @@
         <v>29.143000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1623,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1660,7 @@
         <v>0.50060000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1697,7 @@
         <v>22.515000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1731,7 @@
         <v>-3.5291820000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1721,12 +1765,12 @@
         <v>3.0385924100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1777,7 +1821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1804,7 +1848,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1875,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1876,21 +1920,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +1945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>20</v>
       </c>
@@ -1912,7 +1956,7 @@
         <v>12.740600000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>30</v>
       </c>
@@ -1923,7 +1967,7 @@
         <v>14.8826</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>40</v>
       </c>
@@ -1934,7 +1978,7 @@
         <v>17.2987</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>50</v>
       </c>
@@ -1945,7 +1989,7 @@
         <v>19.535</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>60</v>
       </c>
@@ -1956,7 +2000,7 @@
         <v>21.561699999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>70</v>
       </c>
@@ -1967,7 +2011,7 @@
         <v>24.110800000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>80</v>
       </c>
@@ -1978,7 +2022,7 @@
         <v>26.612100000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>90</v>
       </c>
@@ -1989,7 +2033,7 @@
         <v>28.531500000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
@@ -2000,7 +2044,7 @@
         <v>31.134</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>110</v>
       </c>
@@ -2011,7 +2055,7 @@
         <v>33.309899999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>120</v>
       </c>
@@ -2028,20 +2072,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" customWidth="1"/>
-    <col min="25" max="25" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -2678,22 +2722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
-    <col min="30" max="30" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2817,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2954,7 +2998,7 @@
         <v>155.1062</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +3108,7 @@
         <v>21.7917929020294</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>750</v>
       </c>
@@ -3165,7 +3209,7 @@
         <v>22.0411775621447</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>500</v>
       </c>
@@ -3266,7 +3310,7 @@
         <v>21.797868119922299</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>400</v>
       </c>
@@ -3367,7 +3411,7 @@
         <v>21.2718062052008</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>300</v>
       </c>
@@ -3468,7 +3512,7 @@
         <v>18.667517934899699</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>200</v>
       </c>
@@ -3569,7 +3613,7 @@
         <v>20.4311544471317</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>100</v>
       </c>
